--- a/model/results/mix4_ggpos_h2pos/b_tech.xlsx
+++ b/model/results/mix4_ggpos_h2pos/b_tech.xlsx
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.769230769230774</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3992,16 +3992,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0.9999999999999903</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9999999999999903</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.000000000000006</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307808</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.999999999999998</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307697</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -4208,7 +4208,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4081632653061242</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4081632653061273</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4081632653061273</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -5457,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -5989,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4081632653061262</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -6478,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999667</v>
       </c>
     </row>
     <row r="36">
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.000000000000001</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -7253,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.769230769230774</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -7320,16 +7320,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0.9999999999999903</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9999999999999903</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.000000000000006</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307808</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -7396,16 +7396,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.999999999999998</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7460,28 +7460,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999999999999996</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -7536,7 +7536,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -7557,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -7949,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4081632653061242</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8101,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -8329,7 +8329,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4081632653061273</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4081632653061273</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -8785,7 +8785,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4081632653061262</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -9958,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -10560,7 +10560,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307694</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -10581,7 +10581,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -10636,7 +10636,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.769230769230774</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -10648,16 +10648,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0.9999999999999903</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9999999999999903</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.000000000000006</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307806</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -10724,16 +10724,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.999999999999998</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000005</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -10788,28 +10788,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307725</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -11201,7 +11201,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -11277,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4081632653061242</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -11429,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -11578,10 +11578,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -11654,10 +11654,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4081632653061273</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -11733,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4081632653061273</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -11809,7 +11809,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -12113,7 +12113,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -12189,7 +12189,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -12417,7 +12417,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -12645,7 +12645,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4081632653061262</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -13134,7 +13134,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -13286,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -13888,7 +13888,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -13909,7 +13909,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -13964,7 +13964,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.769230769230774</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -13976,16 +13976,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.9999999999999903</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.702677159698003e-15</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -14040,7 +14040,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307806</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -14052,16 +14052,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.999999999999998</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000005</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -14116,28 +14116,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307704</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -14192,7 +14192,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -14213,7 +14213,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -14529,7 +14529,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -14605,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4081632653061242</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -14757,7 +14757,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -14909,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -14985,7 +14985,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4081632653061273</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -15061,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4081632653061273</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -15137,7 +15137,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -15210,7 +15210,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="M19" t="n">
         <v>0.4081632653061223</v>
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -15517,7 +15517,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -15745,7 +15745,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -15973,7 +15973,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4081632653061262</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -16462,7 +16462,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -16596,7 +16596,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -16614,7 +16614,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -17216,7 +17216,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -17237,7 +17237,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -17292,7 +17292,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -17304,16 +17304,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0.9999999999999903</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9999999999999903</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.000000000000006</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -17368,7 +17368,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307806</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -17380,16 +17380,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999999999999958</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.028741587936855e-15</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999999999999978</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000005</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -17444,28 +17444,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307704</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -17520,7 +17520,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692307725</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -17541,7 +17541,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -17857,7 +17857,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4081632653061242</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -18009,7 +18009,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -18085,7 +18085,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -18161,7 +18161,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -18234,10 +18234,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -18313,7 +18313,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4081632653061273</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -18389,7 +18389,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4081632653061273</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -18465,7 +18465,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -18769,7 +18769,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -18845,7 +18845,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -19073,7 +19073,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -19301,7 +19301,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4081632653061262</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -19790,7 +19790,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -19924,7 +19924,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -20544,7 +20544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -20565,7 +20565,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -20620,7 +20620,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -20641,7 +20641,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307877</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -20708,16 +20708,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999999999999958</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999999999999958</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -20772,7 +20772,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.119402985074628</v>
+        <v>0.7692307692307726</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -20784,16 +20784,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9999999999999988</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1552238805970173</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -20848,7 +20848,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -21261,7 +21261,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4081632653061227</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -22097,7 +22097,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4081632653061228</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -22173,7 +22173,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4081632653061228</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22401,7 +22401,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4081632653061228</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -23118,7 +23118,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -23252,7 +23252,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -23872,7 +23872,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -23948,7 +23948,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -24024,7 +24024,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307877</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -24036,16 +24036,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999999999999856</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.381566211925873e-15</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999999999998583</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -24100,7 +24100,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.119402985074628</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -24112,16 +24112,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9999999999999989</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1552238805970173</v>
+        <v>1.000000000000003</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -24176,7 +24176,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307698</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -24197,7 +24197,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>1.000000000000005</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -25042,10 +25042,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -25270,10 +25270,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -25346,10 +25346,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -25574,10 +25574,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -25650,10 +25650,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061198</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -26030,10 +26030,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -26106,10 +26106,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>1.000000000000004</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -26446,7 +26446,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -26580,7 +26580,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26598,7 +26598,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -27200,7 +27200,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692308094</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27221,7 +27221,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27276,7 +27276,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27297,7 +27297,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27352,7 +27352,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307877</v>
+        <v>0.7692307692307829</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27367,13 +27367,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>2.381566211925873e-15</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999999999998583</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9999999999999966</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27428,7 +27428,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1194029850746322</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27440,16 +27440,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9999999999999989</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999999999999988</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1552238805970161</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27504,7 +27504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307679</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27516,7 +27516,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -29774,7 +29774,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -29908,7 +29908,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -29926,7 +29926,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -30528,7 +30528,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692308094</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -30540,7 +30540,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -30549,7 +30549,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -30604,7 +30604,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -30625,7 +30625,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -30680,7 +30680,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307829</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -30698,10 +30698,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999999999998583</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -30756,7 +30756,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1194029850746278</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -30768,16 +30768,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.9999999999999987</v>
-      </c>
       <c r="I5" t="n">
-        <v>0.1552238805970161</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -30832,7 +30832,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307682</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -30844,10 +30844,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3.169942972671521e-14</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -33102,7 +33102,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -33236,7 +33236,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -33254,7 +33254,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -33856,7 +33856,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307697</v>
+        <v>0.7692307692308094</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -33868,7 +33868,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -33877,7 +33877,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -33932,7 +33932,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -33953,7 +33953,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34008,7 +34008,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307829</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -34020,16 +34020,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999999999999976</v>
+        <v>0.999999999999978</v>
       </c>
       <c r="G4" t="n">
-        <v>2.4256692899245e-15</v>
+        <v>9.702677159698003e-15</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -34084,7 +34084,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1194029850746319</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -34096,16 +34096,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9999999999999987</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9999999999999987</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1552238805970161</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -34160,7 +34160,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307737</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -34181,7 +34181,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000005</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -36430,7 +36430,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -36564,7 +36564,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -36582,7 +36582,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -37184,7 +37184,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -37260,7 +37260,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.769230769230774</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -37336,7 +37336,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307808</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -37412,7 +37412,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -40512,7 +40512,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307719</v>
+        <v>0.7692307692308094</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -40524,7 +40524,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -40533,7 +40533,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -40588,7 +40588,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7692307692307739</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -40609,7 +40609,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -40664,7 +40664,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307829</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -40685,7 +40685,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -40740,7 +40740,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1194029850746326</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -40752,16 +40752,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.9999999999999682</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9999999999999987</v>
+        <v>3.169942972671521e-14</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1552238805970159</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -40816,7 +40816,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307737</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -40837,7 +40837,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -43086,7 +43086,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -43220,7 +43220,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -43238,7 +43238,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -43840,7 +43840,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -43916,7 +43916,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.769230769230774</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -43992,7 +43992,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307808</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -44068,7 +44068,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -44144,7 +44144,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -47168,7 +47168,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -47244,7 +47244,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.769230769230774</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -47320,7 +47320,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307808</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -47396,7 +47396,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -47472,7 +47472,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -49742,7 +49742,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -49894,7 +49894,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -50496,7 +50496,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -50517,7 +50517,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -50572,7 +50572,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.769230769230774</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -50593,7 +50593,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5756166647227716</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -50648,7 +50648,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307808</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -50669,7 +50669,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.7837915696657131</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -50724,13 +50724,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -50800,7 +50800,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -50821,7 +50821,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -52900,7 +52900,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -52976,7 +52976,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000016</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -53052,7 +53052,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -53070,7 +53070,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -53128,7 +53128,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -53204,7 +53204,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -53222,7 +53222,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -53356,7 +53356,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -53432,7 +53432,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -53508,7 +53508,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -53584,7 +53584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -53660,7 +53660,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.000000000000002</v>
+        <v>1.00000000000002</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -53824,7 +53824,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -53836,16 +53836,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.000000000000006</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -53900,7 +53900,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.769230769230774</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -53921,7 +53921,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000006</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -53976,7 +53976,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307808</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -53997,7 +53997,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000004</v>
+        <v>0.905433856632995</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -54052,25 +54052,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307697</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -54128,7 +54128,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -54149,7 +54149,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000007</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -56304,7 +56304,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -56398,7 +56398,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -56550,7 +56550,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -56608,7 +56608,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -57152,7 +57152,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -57173,7 +57173,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -57228,7 +57228,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.769230769230774</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -57249,7 +57249,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -57304,7 +57304,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307808</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -57316,16 +57316,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.000000000000004</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -57380,28 +57380,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307697</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -57456,7 +57456,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -57477,7 +57477,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000007</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -59632,7 +59632,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -59726,7 +59726,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -59878,7 +59878,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -59936,7 +59936,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -60480,7 +60480,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -60501,7 +60501,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -60556,7 +60556,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.769230769230774</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -60577,7 +60577,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -60632,7 +60632,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307808</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -60653,7 +60653,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -60708,28 +60708,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307697</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -60784,7 +60784,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -60805,7 +60805,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000007</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -61121,7 +61121,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -61197,7 +61197,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4081632653061242</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -61349,7 +61349,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -61501,7 +61501,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -61577,7 +61577,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4081632653061273</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -61653,7 +61653,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4081632653061273</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -61729,7 +61729,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -62033,7 +62033,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -62109,7 +62109,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -62337,7 +62337,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -62565,7 +62565,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4081632653061262</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -62960,7 +62960,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -63054,7 +63054,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -63206,7 +63206,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -63264,7 +63264,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -63808,7 +63808,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7692307692307738</v>
+        <v>0.7692307692307697</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -63829,7 +63829,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -63884,7 +63884,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.769230769230774</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -63896,16 +63896,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.000000000000006</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -63960,7 +63960,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7692307692307808</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -63972,16 +63972,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.999999999999998</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.000000000000004</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -64036,28 +64036,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.7692307692307697</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -64112,7 +64112,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692307692307696</v>
+        <v>0.7692307692307704</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -64133,7 +64133,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1.000000000000007</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -64449,7 +64449,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -64525,7 +64525,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4081632653061242</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -64677,7 +64677,7 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -64829,7 +64829,7 @@
         <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061201</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -64905,7 +64905,7 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4081632653061273</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -64981,7 +64981,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4081632653061273</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -65057,7 +65057,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -65361,7 +65361,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -65437,7 +65437,7 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -65665,7 +65665,7 @@
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4081632653061223</v>
+        <v>0.4081632653061307</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -65893,7 +65893,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.4081632653061262</v>
+        <v>0.4081632653061223</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -66288,7 +66288,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -66382,7 +66382,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.09999999999999666</v>
       </c>
     </row>
     <row r="36">
@@ -66534,7 +66534,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.09999999999999581</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -66592,7 +66592,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.00000000000002</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
